--- a/Map/연구.xlsx
+++ b/Map/연구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Back_git\OpenGL-FinalTerm2\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{447362D3-7980-4ED3-AB26-E446E9778BA5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA74111-94DB-46BE-81CD-E2696CF1A16F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9360" windowHeight="5235" xr2:uid="{575690DC-6FD0-474D-86EC-393953EEB26A}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +106,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +172,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -232,7 +245,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,8 +255,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,8 +326,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -629,7 +649,7 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,6 +1060,10 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
+      <c r="L12" s="22">
+        <f>SUM(C4:H10)</f>
+        <v>66</v>
+      </c>
       <c r="Q12" s="4">
         <v>9</v>
       </c>

--- a/Map/연구.xlsx
+++ b/Map/연구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Back_git\OpenGL-FinalTerm2\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{447362D3-7980-4ED3-AB26-E446E9778BA5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDBBE73-ED4B-418F-AAB5-A69F1DEC972D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9360" windowHeight="5235" xr2:uid="{575690DC-6FD0-474D-86EC-393953EEB26A}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1016,6 +1016,10 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
+      <c r="M11">
+        <f>SUM(C4:H10)</f>
+        <v>66</v>
+      </c>
       <c r="Q11" s="4">
         <v>8</v>
       </c>
